--- a/interface.xlsx
+++ b/interface.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ouakira/编程/testInterface/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ouakira/编程/autoTest/interfaceTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,29 @@
   </si>
   <si>
     <t>banner.1.channel.ext.w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <rPh sb="0" eb="1">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lkdsajlkf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bucket_0053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoflow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,15 +524,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.1640625" style="1" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" style="1"/>
     <col min="10" max="10" width="18.1640625" style="1" customWidth="1"/>
     <col min="11" max="12" width="46.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="1"/>
@@ -610,6 +634,9 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -618,6 +645,9 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -626,6 +656,9 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -634,6 +667,9 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -642,6 +678,9 @@
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -650,6 +689,9 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C9" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -658,6 +700,9 @@
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -666,6 +711,9 @@
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -690,6 +738,9 @@
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -697,6 +748,9 @@
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>640</v>
       </c>
     </row>
   </sheetData>
